--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141578.849670288</v>
+        <v>3139035.040163205</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8340308.187655605</v>
+        <v>8340308.187655606</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>208.2085323732921</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>79.8445399165377</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.8804318482953</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>96.43769434910145</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>260.2363572824534</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>72.63544656439292</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.1845637256568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>65.77030295285051</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>269.4821612357435</v>
+        <v>11.54915978824951</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>219.1455308645008</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288384</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614514</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.2497997611526</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098962</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430997</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>68.74506304142967</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>107.4985065573522</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.5212963318321</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>203.7428910438523</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223672</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.421623586789258</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999791</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560554</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613243</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428251</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444157</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711322</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428251</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275113</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275113</v>
+        <v>419.733006062639</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656002</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>412.7875053134355</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>399.823692539991</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946894</v>
+        <v>419.733006062639</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946894</v>
+        <v>419.733006062639</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946894</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946894</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>955.86858579207</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>955.86858579207</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>955.86858579207</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>955.86858579207</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>955.86858579207</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>955.86858579207</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>957.4437075321852</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>788.5075246042783</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>638.3908851919425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4437075321852</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>957.4437075321852</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>957.4437075321852</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>957.4437075321852</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.4117490931552</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4117490931552</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4117490931552</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931552</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395173</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>634.1670622275113</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275113</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603333</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.4117490931552</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,19 +4747,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640393</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>762.9518343167156</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>508.2673461108287</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
         <v>241.8896895436506</v>
@@ -4768,7 +4768,7 @@
         <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1057.589174771649</v>
+        <v>373.8967903081296</v>
       </c>
       <c r="C8" t="n">
-        <v>688.6266578312373</v>
+        <v>373.8967903081296</v>
       </c>
       <c r="D8" t="n">
-        <v>330.3609592244867</v>
+        <v>373.8967903081296</v>
       </c>
       <c r="E8" t="n">
-        <v>330.3609592244867</v>
+        <v>373.8967903081296</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4154584752833</v>
+        <v>366.9512895589261</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685553</v>
+        <v>355.2854715909974</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607396</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045881</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209575</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940585</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550185</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.56462266115</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2351.810676439041</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964611</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342777</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072662</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811582</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.189014835771</v>
+        <v>760.4966303722514</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010627</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199357</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586845</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.884826853229</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>238.3188829507226</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148171</v>
+        <v>422.9158793018207</v>
       </c>
       <c r="L9" t="n">
-        <v>776.7040495714557</v>
+        <v>1056.655162486656</v>
       </c>
       <c r="M9" t="n">
-        <v>1139.770518045756</v>
+        <v>1419.721630960956</v>
       </c>
       <c r="N9" t="n">
-        <v>1526.854920518325</v>
+        <v>1806.806033433523</v>
       </c>
       <c r="O9" t="n">
-        <v>1858.741730505713</v>
+        <v>2138.692843420911</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888875</v>
+        <v>2421.055229888867</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442619</v>
+        <v>2536.272628442611</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342768</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.826280251683</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2230.816477685332</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751562</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519819</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791617</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586085</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821131</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685553</v>
+        <v>476.1390772876027</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685553</v>
+        <v>307.2028943596958</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685537</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380115</v>
+        <v>76.63468308380078</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676554</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368898</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904004</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101608</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616494</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412617</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634451</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108856</v>
+        <v>1310.174753887019</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.095043491251</v>
+        <v>1021.056380381661</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4105552853637</v>
+        <v>766.371892175774</v>
       </c>
       <c r="W10" t="n">
-        <v>499.993385248403</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0038343503857</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.21125520685553</v>
+        <v>657.7875421178425</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.455065717131</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892241</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768884</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944952</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F16" t="n">
-        <v>266.4891497944952</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>99.29305050937518</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690901</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473707</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852258</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637309</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797193</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
@@ -5753,10 +5753,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852258</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797193</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797193</v>
@@ -5966,19 +5966,19 @@
         <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168633</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362706</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797193</v>
@@ -5990,10 +5990,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,10 +6002,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852258</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245697</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403286</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797193</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,13 +6777,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7403,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1894.106123115829</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7658,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594291</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>185.941729114301</v>
+        <v>342.6295957084397</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.683866705387</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143918</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>48.39475227997568</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>134.8730892594346</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367988</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715146</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.2652634529499</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>733621.442581929</v>
+        <v>733621.4425819289</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>733621.442581929</v>
+        <v>733621.4425819289</v>
       </c>
     </row>
     <row r="4">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716622.3221339647</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580752</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606951</v>
+        <v>507909.2320606974</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911359</v>
+        <v>68999.15441911356</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101722</v>
+        <v>95270.23779101679</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954701</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501122</v>
+        <v>140465.2517501128</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179339</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.0322517934</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179342</v>
+        <v>11167.03225179339</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179353</v>
-      </c>
       <c r="M4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567868</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275951.6007832314</v>
+        <v>-275951.6007832315</v>
       </c>
       <c r="C6" t="n">
         <v>404136.379807962</v>
       </c>
       <c r="D6" t="n">
-        <v>94363.42164737987</v>
+        <v>94363.4216473813</v>
       </c>
       <c r="E6" t="n">
-        <v>86054.4805923597</v>
+        <v>86019.74266692156</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.7126530544</v>
+        <v>593928.974727619</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.974727619</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.974727619</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="J6" t="n">
-        <v>524964.5582339414</v>
+        <v>524929.8203085052</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="L6" t="n">
-        <v>498693.4748620374</v>
+        <v>498658.7369366023</v>
       </c>
       <c r="M6" t="n">
-        <v>461245.7369575851</v>
+        <v>461210.999032149</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.9747276191</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.712653055</v>
+        <v>593928.9747276191</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627797</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856921</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933031</v>
+        <v>319.6474457933015</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788926</v>
+        <v>434.2730407788945</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.426810084186</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.567598013957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015056</v>
+        <v>263.7138800015055</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084188</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.567598013957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.426810084186</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.567598013957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>146.4745092473909</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769327</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>67.30539549566107</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>1.802263929009086</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>155.6999489747266</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>26.28664105413765</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.1987280813171</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778207</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081376</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>220.488327549827</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>142.066998552506</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>65.76608425465085</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6067276056341</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164545454</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164536757</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.4821267288747</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>179.0244917792388</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.02921323512636e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.485841352254179e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-6.440674018558038e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.487407375954916e-12</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.65793763253734e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.085381414058765e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.440674018558029e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.440674018558038e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885544</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546659</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972522</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763174</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354909</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359917</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525054</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307872</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983003</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542115</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864742</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140441</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035133</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026248</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079419</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502157</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571266</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617149</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152196</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519067</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947576</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463693</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204784</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366387</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133908</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419028</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752553</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415862</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954055</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490115</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023116</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462341</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708724</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939797</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307388</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658767</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942726</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650302</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737919</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071787</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.6544928674244</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745668</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862124</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.87657862147</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.6544928674244</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305184</v>
+        <v>146.0225991093077</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473074</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33655,10 +33655,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.43861174566</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705659</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313368</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655037</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.749171808719</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559145</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091005</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430307</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.038476879762</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234213</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>188.997603781684</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758573</v>
+        <v>186.4616124758567</v>
       </c>
       <c r="L9" t="n">
-        <v>483.4528234915542</v>
+        <v>640.1406900856921</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396975</v>
+        <v>366.7338065396966</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318863</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.2392020074623</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203653</v>
+        <v>285.2145317858144</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783554</v>
+        <v>24.53548676783531</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873274</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513683</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093276</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641522</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254627</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186643</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357659</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228536</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712518</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132138</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238455</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790012</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
         <v>603.412613764194</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071398</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561594</v>
+        <v>8.181160134948685</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674332</v>
@@ -36446,16 +36446,16 @@
         <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37303,10 +37303,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
